--- a/data/trans_dic/P21B_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P21B_R-Edad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.9121355511234596</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.9068444088933647</v>
+        <v>0.9068444088933645</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.976905456943239</v>
@@ -685,7 +685,7 @@
         <v>0.9324315801014744</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.9373010776838386</v>
+        <v>0.9373010776838389</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.9783392325447274</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9306353371181566</v>
+        <v>0.9272735802204348</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9362793171618493</v>
+        <v>0.942326604065733</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8390846602890506</v>
+        <v>0.8384857982705354</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.7160300098091705</v>
+        <v>0.6760417387045902</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.936264846177933</v>
+        <v>0.9408886214883467</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.9392088441303926</v>
+        <v>0.9391642259319347</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8565474487711369</v>
+        <v>0.8597900052672294</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.8346324794755285</v>
+        <v>0.824982921721813</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.9539082507162364</v>
+        <v>0.9493920749965171</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.9543370084400977</v>
+        <v>0.9532047424392331</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.8767010008835675</v>
+        <v>0.876234179101105</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.8150731553971087</v>
+        <v>0.8252503492902473</v>
       </c>
     </row>
     <row r="6">
@@ -758,34 +758,34 @@
         <v>1</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9578735326072202</v>
+        <v>0.9568019609887038</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9934462524447196</v>
+        <v>0.9933883727574977</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9926802035185602</v>
+        <v>0.9927172270710608</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.9717253296518115</v>
+        <v>0.9714896590371721</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1</v>
+        <v>0.9841999140023776</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9918800846399015</v>
+        <v>0.9921222388363574</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.9919397302414613</v>
+        <v>0.9920437213052665</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.9534572550718197</v>
+        <v>0.9564588388376457</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.9743169618813393</v>
+        <v>0.9706155784175932</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.8868078328241905</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.9145374051009003</v>
+        <v>0.9145374051009004</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8991913995409272</v>
+        <v>0.8968721047398146</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9266661835161081</v>
+        <v>0.9300324006712245</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8029810244639946</v>
+        <v>0.7952558781591845</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.9232418751025654</v>
+        <v>0.9053531206237543</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.9043786748077282</v>
+        <v>0.9042810765519433</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8987338632986605</v>
+        <v>0.8999717307448352</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8273414023823782</v>
+        <v>0.823023547053965</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.7844029596521038</v>
+        <v>0.786303650241312</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.9177342481718281</v>
+        <v>0.9105644683343439</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.9233999732155057</v>
+        <v>0.9262334967629768</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.8395952816451874</v>
+        <v>0.8360269060174819</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.869646467934438</v>
+        <v>0.8618805168323227</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9818909547521312</v>
+        <v>0.9827792014087239</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9880057467251238</v>
+        <v>0.987866746563237</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9393283503689411</v>
+        <v>0.9416720237878564</v>
       </c>
       <c r="F9" s="5" t="n">
         <v>1</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9761309338987136</v>
+        <v>0.9740871557736515</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9664943986009749</v>
+        <v>0.9669585578836309</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9386962589106608</v>
+        <v>0.9313686370114291</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9248542000229756</v>
+        <v>0.9210514513556433</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.9696437139255324</v>
+        <v>0.9683516478153127</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.9679301229223175</v>
+        <v>0.9709055233020659</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.9245823944201041</v>
+        <v>0.9251551792513544</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.9491798821242227</v>
+        <v>0.9458168286939341</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.9401843431471187</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.8928620610387492</v>
+        <v>0.8928620610387491</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.979396625203552</v>
@@ -957,7 +957,7 @@
         <v>0.8687483803782875</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.934820469824946</v>
+        <v>0.9348204698249463</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.9791978853297316</v>
@@ -969,7 +969,7 @@
         <v>0.8991697916521516</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.9155187098525881</v>
+        <v>0.915518709852588</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.926487625173229</v>
+        <v>0.9231813502349809</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9041194461831634</v>
+        <v>0.9026503452528032</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8626318320959317</v>
+        <v>0.8689620036442165</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8215105644720003</v>
+        <v>0.8295425917440822</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9389965893172294</v>
+        <v>0.9455398796323256</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.9509125589939872</v>
+        <v>0.9555330730442131</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7994547841813621</v>
+        <v>0.8013808530167219</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.8934791627364657</v>
+        <v>0.8929784689478403</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.957778274195367</v>
+        <v>0.9533125696135466</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.9454644861669579</v>
+        <v>0.9429189921660142</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.8498028775180526</v>
+        <v>0.8540053355493329</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.8757419877532908</v>
+        <v>0.8684766508245897</v>
       </c>
     </row>
     <row r="12">
@@ -1027,37 +1027,37 @@
         <v>1</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9924687724853578</v>
+        <v>0.992534266197318</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9806244314258729</v>
+        <v>0.9774427413810088</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9410302844933747</v>
+        <v>0.9448465554420185</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9937931692230592</v>
+        <v>0.9938360989887369</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9947645811854526</v>
+        <v>0.994759264590524</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9214212881475103</v>
+        <v>0.9170249244809943</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9638530490610656</v>
+        <v>0.9644822209075573</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9924374115079166</v>
+        <v>0.9919633201572974</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.9901850155702792</v>
+        <v>0.9903029022243182</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.9359193540452321</v>
+        <v>0.9343023760580538</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.9434111565502272</v>
+        <v>0.9416539919599741</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.9593707833627294</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.8858059955927839</v>
+        <v>0.8858059955927841</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.9692003750932867</v>
@@ -1105,7 +1105,7 @@
         <v>0.9477013994271922</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.8929558615229495</v>
+        <v>0.8929558615229497</v>
       </c>
     </row>
     <row r="14">
@@ -1116,38 +1116,38 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8370913093502685</v>
+        <v>0.8392098541418348</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.896777031469199</v>
+        <v>0.8960080999311777</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.853950278700898</v>
+        <v>0.842023783337257</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8441561575187434</v>
+        <v>0.8448050996729353</v>
       </c>
       <c r="G14" s="5" t="inlineStr"/>
       <c r="H14" s="5" t="n">
-        <v>0.8651738016116559</v>
+        <v>0.8632326952613465</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9071628727084078</v>
+        <v>0.9072996239067135</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.8441061183414024</v>
+        <v>0.8424468812189995</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.9288917759544552</v>
+        <v>0.9243488941869097</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.8999641778253562</v>
+        <v>0.902399136861102</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.9023085733201226</v>
+        <v>0.9111556265909916</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.861480792393292</v>
+        <v>0.8623807233682258</v>
       </c>
     </row>
     <row r="15">
@@ -1158,38 +1158,38 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9754633543890571</v>
+        <v>0.9763956438687058</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9896792872695019</v>
+        <v>0.9885329905859607</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9771390782038631</v>
+        <v>0.97636913446635</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9384633596084334</v>
+        <v>0.9394542247494495</v>
       </c>
       <c r="G15" s="5" t="inlineStr"/>
       <c r="H15" s="5" t="n">
-        <v>0.9766996816928587</v>
+        <v>0.9745863213813852</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9901360061035432</v>
+        <v>0.9895644683602703</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.918732973414304</v>
+        <v>0.9215537027493719</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9890039649970923</v>
+        <v>0.9888684283619549</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.9721943555754815</v>
+        <v>0.9726246289875639</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.9743545607876426</v>
+        <v>0.9767322293979502</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.9190021739725386</v>
+        <v>0.9198580910484808</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7793747179208272</v>
+        <v>0.7834534503897299</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9136543309795718</v>
+        <v>0.9010847495247967</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8897513624000922</v>
+        <v>0.9039240174682016</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8547744709192681</v>
+        <v>0.8502385222591257</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.857769537511054</v>
+        <v>0.876436310661911</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.9506051259550659</v>
+        <v>0.9474981254635827</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8892735163816111</v>
+        <v>0.8884345878831761</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.866056658889482</v>
+        <v>0.8631825568742655</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.8684236307181855</v>
+        <v>0.8614649862026127</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.9491906506855869</v>
+        <v>0.9526239912917459</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.9143792907352782</v>
+        <v>0.9163454797831476</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.8743891292486431</v>
+        <v>0.8757142857239038</v>
       </c>
     </row>
     <row r="18">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9595910155624628</v>
+        <v>0.9678294565647445</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>1</v>
@@ -1301,10 +1301,10 @@
         <v>1</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9521805838202002</v>
+        <v>0.9541425702520067</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9821648358029806</v>
+        <v>0.9863369295609026</v>
       </c>
       <c r="H18" s="5" t="n">
         <v>1</v>
@@ -1313,19 +1313,19 @@
         <v>1</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9426463388615319</v>
+        <v>0.9413171426002969</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9660725181490165</v>
+        <v>0.9646888985359133</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.9945143757730172</v>
+        <v>0.9944783035992215</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.992218913935116</v>
+        <v>0.9883341595651164</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.9352260461997117</v>
+        <v>0.9401987919359882</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>0.9586853149899291</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.9369750888129257</v>
+        <v>0.9369750888129256</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.9727046782576425</v>
@@ -1373,7 +1373,7 @@
         <v>0.9618855669291942</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.9074211404950908</v>
+        <v>0.9074211404950909</v>
       </c>
     </row>
     <row r="20">
@@ -1384,38 +1384,38 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.9113490859033981</v>
+        <v>0.9023153638901391</v>
       </c>
       <c r="D20" s="5" t="inlineStr"/>
       <c r="E20" s="5" t="n">
-        <v>0.8825720629400327</v>
+        <v>0.8826532441723387</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.7927717470053653</v>
+        <v>0.7786479542917742</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9294529211268695</v>
+        <v>0.9249424235153335</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.9303867510438576</v>
+        <v>0.9273640413021917</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.8897045292910619</v>
+        <v>0.887015358767129</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.8964667863257418</v>
+        <v>0.892776076438582</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.9388352273694537</v>
+        <v>0.9398120715231475</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.9552493700382627</v>
+        <v>0.9544661185328718</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.9144738153719304</v>
+        <v>0.9173011209044073</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.8641657969692291</v>
+        <v>0.8603366101570173</v>
       </c>
     </row>
     <row r="21">
@@ -1433,31 +1433,31 @@
         <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.9276615299926974</v>
+        <v>0.9237498045172507</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9923093637518121</v>
+        <v>0.9922494729078211</v>
       </c>
       <c r="H21" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9872212033220347</v>
+        <v>0.9872228017509608</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.9690169074720452</v>
+        <v>0.9656098961536915</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.9895927989050423</v>
+        <v>0.9897160061233193</v>
       </c>
       <c r="L21" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.9852294527803683</v>
+        <v>0.9864602868843373</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.9364676683990851</v>
+        <v>0.9385764339757362</v>
       </c>
     </row>
     <row r="22">
@@ -1505,7 +1505,7 @@
         <v>0.9395995193383034</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.9619308149260328</v>
+        <v>0.9619308149260329</v>
       </c>
     </row>
     <row r="23">
@@ -1516,38 +1516,38 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8642086701814775</v>
+        <v>0.8605419135783218</v>
       </c>
       <c r="D23" s="5" t="inlineStr"/>
       <c r="E23" s="5" t="n">
-        <v>0.7835944921671023</v>
+        <v>0.7758332162645594</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.8783784259832076</v>
+        <v>0.8783828294779188</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.8998087798735191</v>
+        <v>0.9030062464719293</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.9634984503477066</v>
+        <v>0.9604871769937788</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.8926883687417562</v>
+        <v>0.8926384202801023</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.9352175407794163</v>
+        <v>0.9346256925307577</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.9174846002519691</v>
+        <v>0.9101265277170022</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.9762832763468008</v>
+        <v>0.9717432753463617</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.8878213682958714</v>
+        <v>0.8879402737100169</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.9351882374648093</v>
+        <v>0.9313407111023746</v>
       </c>
     </row>
     <row r="24">
@@ -1562,34 +1562,34 @@
       </c>
       <c r="D24" s="5" t="inlineStr"/>
       <c r="E24" s="5" t="n">
-        <v>0.9625700896578221</v>
+        <v>0.9623978184615046</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9800172559722927</v>
+        <v>0.9796736320682428</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9885147050850437</v>
+        <v>0.9885721174132529</v>
       </c>
       <c r="H24" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9871701374205322</v>
+        <v>0.9872170976960721</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.987226220894462</v>
+        <v>0.9855233117131007</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.9861081010973742</v>
+        <v>0.9825395638700972</v>
       </c>
       <c r="L24" s="5" t="n">
         <v>1</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.9706058593979832</v>
+        <v>0.9712539141366223</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.9798435099050938</v>
+        <v>0.9799206551814605</v>
       </c>
     </row>
     <row r="25">
@@ -1613,7 +1613,7 @@
         <v>0.9274875357121677</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.913271629275632</v>
+        <v>0.9132716292756321</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.9675758600268706</v>
@@ -1625,7 +1625,7 @@
         <v>0.9263020049848701</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.9169537582730711</v>
+        <v>0.916953758273071</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.962251268524312</v>
@@ -1637,7 +1637,7 @@
         <v>0.9268046151106055</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.9153360564950369</v>
+        <v>0.9153360564950372</v>
       </c>
     </row>
     <row r="26">
@@ -1648,40 +1648,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.931988368735027</v>
+        <v>0.9331260916380889</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.9599649641931242</v>
+        <v>0.9596991474221125</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.8994514943464517</v>
+        <v>0.9003869898138395</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.8880382442151928</v>
+        <v>0.8879090974725734</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.9531669611558864</v>
+        <v>0.9538738590668864</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.9554336022539034</v>
+        <v>0.9556531000655132</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.9010666667779161</v>
+        <v>0.9049394077150957</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.8984808777683891</v>
+        <v>0.9001219476372945</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.9505960682506117</v>
+        <v>0.9491371145731852</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.9609933347317522</v>
+        <v>0.9626825982438107</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.911039451683741</v>
+        <v>0.9112598523075996</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.9015472224517337</v>
+        <v>0.9011787809497979</v>
       </c>
     </row>
     <row r="27">
@@ -1692,40 +1692,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.9701093363924156</v>
+        <v>0.9697315095771659</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9845211981915254</v>
+        <v>0.9849741425795124</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9479831645274227</v>
+        <v>0.9472765439784385</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.9332305759652377</v>
+        <v>0.9335665715717452</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.9784904187328329</v>
+        <v>0.9796091662954302</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.9789026977120978</v>
+        <v>0.9786735761211153</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.9424470768632232</v>
+        <v>0.9454843979578541</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.9323665313864793</v>
+        <v>0.9342496428840034</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.9724731139518606</v>
+        <v>0.9714765799417889</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.9787632863284047</v>
+        <v>0.9788082933674455</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.9404629235051378</v>
+        <v>0.9407332301545052</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.9283302567887274</v>
+        <v>0.9281593558564806</v>
       </c>
     </row>
     <row r="28">
@@ -1999,40 +1999,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>91485</v>
+        <v>91155</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>101622</v>
+        <v>102278</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>77656</v>
+        <v>77600</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>52741</v>
+        <v>49795</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>104394</v>
+        <v>104910</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>120360</v>
+        <v>120354</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>79080</v>
+        <v>79379</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>79323</v>
+        <v>78406</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>200134</v>
+        <v>199186</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>225880</v>
+        <v>225612</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>162078</v>
+        <v>161992</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>137499</v>
+        <v>139216</v>
       </c>
     </row>
     <row r="7">
@@ -2049,34 +2049,34 @@
         <v>108538</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>88649</v>
+        <v>88550</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>73657</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>110770</v>
+        <v>110764</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>127212</v>
+        <v>127217</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>89714</v>
+        <v>89692</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>95039</v>
+        <v>93537</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>208100</v>
+        <v>208151</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>234780</v>
+        <v>234805</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>176269</v>
+        <v>176823</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>164362</v>
+        <v>163738</v>
       </c>
     </row>
     <row r="8">
@@ -2179,40 +2179,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>100136</v>
+        <v>99877</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>151108</v>
+        <v>151657</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>75883</v>
+        <v>75152</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>89984</v>
+        <v>88240</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>167538</v>
+        <v>167520</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>190945</v>
+        <v>191208</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>116258</v>
+        <v>115651</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>102380</v>
+        <v>102628</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>272213</v>
+        <v>270086</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>346761</v>
+        <v>347825</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>197323</v>
+        <v>196484</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>198267</v>
+        <v>196497</v>
       </c>
     </row>
     <row r="11">
@@ -2223,40 +2223,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>109345</v>
+        <v>109444</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>161110</v>
+        <v>161087</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>88767</v>
+        <v>88989</v>
       </c>
       <c r="F11" s="6" t="n">
         <v>97465</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>180830</v>
+        <v>180452</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>205341</v>
+        <v>205440</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>131906</v>
+        <v>130876</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>120712</v>
+        <v>120216</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>287610</v>
+        <v>287227</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>363483</v>
+        <v>364600</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>217296</v>
+        <v>217431</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>216400</v>
+        <v>215633</v>
       </c>
     </row>
     <row r="12">
@@ -2359,40 +2359,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>82099</v>
+        <v>81806</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>112802</v>
+        <v>112618</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>90979</v>
+        <v>91647</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>105657</v>
+        <v>106690</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>128762</v>
+        <v>129659</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>160075</v>
+        <v>160853</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>113676</v>
+        <v>113950</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>134887</v>
+        <v>134811</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>216209</v>
+        <v>215201</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>277118</v>
+        <v>276371</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>210461</v>
+        <v>211502</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>244840</v>
+        <v>242809</v>
       </c>
     </row>
     <row r="15">
@@ -2406,37 +2406,37 @@
         <v>88613</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>123824</v>
+        <v>123833</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>103424</v>
+        <v>103088</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>121029</v>
+        <v>121520</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>136276</v>
+        <v>136282</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>167457</v>
+        <v>167456</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>131019</v>
+        <v>130394</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>145511</v>
+        <v>145606</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>224033</v>
+        <v>223926</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>290225</v>
+        <v>290260</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>231789</v>
+        <v>231388</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>263759</v>
+        <v>263268</v>
       </c>
     </row>
     <row r="16">
@@ -2539,38 +2539,38 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>66259</v>
+        <v>66427</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>88666</v>
+        <v>88590</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>76177</v>
+        <v>75114</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>146280</v>
+        <v>146393</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="n">
-        <v>112345</v>
+        <v>112093</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>101139</v>
+        <v>101154</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>149131</v>
+        <v>148838</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>170054</v>
+        <v>169222</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>205845</v>
+        <v>206402</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>181089</v>
+        <v>182864</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>301483</v>
+        <v>301798</v>
       </c>
     </row>
     <row r="19">
@@ -2581,38 +2581,38 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>77212</v>
+        <v>77286</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>97852</v>
+        <v>97738</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>87167</v>
+        <v>87098</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>162623</v>
+        <v>162794</v>
       </c>
       <c r="G19" s="6" t="inlineStr"/>
       <c r="H19" s="6" t="n">
-        <v>126827</v>
+        <v>126553</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>110389</v>
+        <v>110326</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>162315</v>
+        <v>162814</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>181059</v>
+        <v>181034</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>222366</v>
+        <v>222465</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>195548</v>
+        <v>196025</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>321613</v>
+        <v>321913</v>
       </c>
     </row>
     <row r="20">
@@ -2715,40 +2715,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>49182</v>
+        <v>49440</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>68106</v>
+        <v>67169</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>60580</v>
+        <v>61545</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>106193</v>
+        <v>105629</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>74139</v>
+        <v>75752</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>98985</v>
+        <v>98661</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>79004</v>
+        <v>78929</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>127118</v>
+        <v>126696</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>129861</v>
+        <v>128821</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>169592</v>
+        <v>170205</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>143492</v>
+        <v>143800</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>236971</v>
+        <v>237330</v>
       </c>
     </row>
     <row r="23">
@@ -2759,7 +2759,7 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>60555</v>
+        <v>61075</v>
       </c>
       <c r="D23" s="6" t="n">
         <v>74542</v>
@@ -2768,10 +2768,10 @@
         <v>68086</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>118294</v>
+        <v>118538</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>84890</v>
+        <v>85251</v>
       </c>
       <c r="H23" s="6" t="n">
         <v>104128</v>
@@ -2780,19 +2780,19 @@
         <v>88841</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>138360</v>
+        <v>138165</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>144464</v>
+        <v>144257</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>177690</v>
+        <v>177683</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>155707</v>
+        <v>155097</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>253458</v>
+        <v>254806</v>
       </c>
     </row>
     <row r="24">
@@ -2895,38 +2895,38 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>55847</v>
+        <v>55293</v>
       </c>
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="n">
-        <v>50272</v>
+        <v>50277</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>56988</v>
+        <v>55972</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>87973</v>
+        <v>87546</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>85711</v>
+        <v>85432</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>68485</v>
+        <v>68278</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>91553</v>
+        <v>91176</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>146392</v>
+        <v>146544</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>141970</v>
+        <v>141854</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>122481</v>
+        <v>122860</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>150373</v>
+        <v>149707</v>
       </c>
     </row>
     <row r="27">
@@ -2944,10 +2944,10 @@
         <v>56961</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>66684</v>
+        <v>66403</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>93922</v>
+        <v>93916</v>
       </c>
       <c r="H27" s="6" t="n">
         <v>92124</v>
@@ -2956,19 +2956,19 @@
         <v>75991</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>98962</v>
+        <v>98614</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>154306</v>
+        <v>154325</v>
       </c>
       <c r="L27" s="6" t="n">
         <v>148621</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>131958</v>
+        <v>132123</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>162955</v>
+        <v>163322</v>
       </c>
     </row>
     <row r="28">
@@ -3071,38 +3071,38 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>48939</v>
+        <v>48732</v>
       </c>
       <c r="D30" s="6" t="inlineStr"/>
       <c r="E30" s="6" t="n">
-        <v>35024</v>
+        <v>34677</v>
       </c>
       <c r="F30" s="6" t="n">
         <v>55622</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>94596</v>
+        <v>94932</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>137097</v>
+        <v>136669</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>86558</v>
+        <v>86553</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>124033</v>
+        <v>123955</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>148410</v>
+        <v>147220</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>214405</v>
+        <v>213408</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>125770</v>
+        <v>125787</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>183247</v>
+        <v>182493</v>
       </c>
     </row>
     <row r="31">
@@ -3117,34 +3117,34 @@
       </c>
       <c r="D31" s="6" t="inlineStr"/>
       <c r="E31" s="6" t="n">
-        <v>43024</v>
+        <v>43016</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>62058</v>
+        <v>62036</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>103922</v>
+        <v>103928</v>
       </c>
       <c r="H31" s="6" t="n">
         <v>142291</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>95719</v>
+        <v>95724</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>130931</v>
+        <v>130705</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>159511</v>
+        <v>158934</v>
       </c>
       <c r="L31" s="6" t="n">
         <v>219614</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>137497</v>
+        <v>137589</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>191997</v>
+        <v>192013</v>
       </c>
     </row>
     <row r="32">
@@ -3247,40 +3247,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>520465</v>
+        <v>521101</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>675433</v>
+        <v>675246</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>496018</v>
+        <v>496534</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>650453</v>
+        <v>650359</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>785418</v>
+        <v>786001</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>933787</v>
+        <v>934002</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>675174</v>
+        <v>678076</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>839836</v>
+        <v>841370</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1314155</v>
+        <v>1312138</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1615378</v>
+        <v>1618217</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>1185055</v>
+        <v>1185341</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1503051</v>
+        <v>1502437</v>
       </c>
     </row>
     <row r="35">
@@ -3291,40 +3291,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>541754</v>
+        <v>541543</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>692711</v>
+        <v>693030</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>522781</v>
+        <v>522392</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>683555</v>
+        <v>683801</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>806285</v>
+        <v>807207</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>956725</v>
+        <v>956501</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>706180</v>
+        <v>708456</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>871510</v>
+        <v>873270</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1344399</v>
+        <v>1343022</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>1645248</v>
+        <v>1645324</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>1223328</v>
+        <v>1223679</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1547704</v>
+        <v>1547419</v>
       </c>
     </row>
     <row r="36">
